--- a/data/trans_orig/RUIDO_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C3A1E7-74EE-46B4-AC9A-C7726ADD6280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A9BF84C-AD08-4FC2-81DD-77E9077D2E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E23917F3-1D14-49CA-99DD-30BA726BEF49}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{181F2BED-543A-40E1-A250-C91A46E10E15}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,553 +71,553 @@
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>No puedo permitírmelo (económicamente)</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
   </si>
   <si>
     <t>Ya pago demasiados impuestos</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
   </si>
   <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>No me siento responsable del ruido</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>No me siento responsable del ruido</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1032,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AA4284-F34C-41E3-B619-6993C48AFE80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB973B92-AF6B-4D5C-A2FC-A58F131BBD52}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1153,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>20037</v>
+        <v>19171</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>27529</v>
+        <v>25271</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>47566</v>
+        <v>44441</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1204,7 +1204,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="7">
-        <v>91917</v>
+        <v>88300</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1219,7 +1219,7 @@
         <v>298</v>
       </c>
       <c r="I5" s="7">
-        <v>164134</v>
+        <v>151504</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1234,7 +1234,7 @@
         <v>425</v>
       </c>
       <c r="N5" s="7">
-        <v>256051</v>
+        <v>239804</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1255,7 +1255,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="7">
-        <v>57416</v>
+        <v>54718</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1270,7 +1270,7 @@
         <v>124</v>
       </c>
       <c r="I6" s="7">
-        <v>69819</v>
+        <v>63762</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1285,7 +1285,7 @@
         <v>202</v>
       </c>
       <c r="N6" s="7">
-        <v>127236</v>
+        <v>118480</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1306,7 +1306,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>30329</v>
+        <v>26276</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1321,7 +1321,7 @@
         <v>84</v>
       </c>
       <c r="I7" s="7">
-        <v>55626</v>
+        <v>47762</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>85955</v>
+        <v>74039</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1357,7 +1357,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="7">
-        <v>39087</v>
+        <v>36478</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="I8" s="7">
-        <v>57024</v>
+        <v>51164</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1387,7 +1387,7 @@
         <v>150</v>
       </c>
       <c r="N8" s="7">
-        <v>96112</v>
+        <v>87642</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1408,7 +1408,7 @@
         <v>315</v>
       </c>
       <c r="D9" s="7">
-        <v>238786</v>
+        <v>224943</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1423,7 +1423,7 @@
         <v>653</v>
       </c>
       <c r="I9" s="7">
-        <v>374133</v>
+        <v>339463</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1438,7 +1438,7 @@
         <v>968</v>
       </c>
       <c r="N9" s="7">
-        <v>612920</v>
+        <v>564406</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1461,7 +1461,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>80753</v>
+        <v>87316</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1476,7 +1476,7 @@
         <v>106</v>
       </c>
       <c r="I10" s="7">
-        <v>78766</v>
+        <v>73552</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1491,7 +1491,7 @@
         <v>157</v>
       </c>
       <c r="N10" s="7">
-        <v>159519</v>
+        <v>160867</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -1512,7 +1512,7 @@
         <v>189</v>
       </c>
       <c r="D11" s="7">
-        <v>190273</v>
+        <v>182349</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1527,7 +1527,7 @@
         <v>328</v>
       </c>
       <c r="I11" s="7">
-        <v>341057</v>
+        <v>415962</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1542,7 +1542,7 @@
         <v>517</v>
       </c>
       <c r="N11" s="7">
-        <v>531330</v>
+        <v>598311</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -1563,7 +1563,7 @@
         <v>347</v>
       </c>
       <c r="D12" s="7">
-        <v>340451</v>
+        <v>329274</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -1578,7 +1578,7 @@
         <v>416</v>
       </c>
       <c r="I12" s="7">
-        <v>282415</v>
+        <v>260818</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -1593,7 +1593,7 @@
         <v>763</v>
       </c>
       <c r="N12" s="7">
-        <v>622866</v>
+        <v>590092</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -1614,7 +1614,7 @@
         <v>130</v>
       </c>
       <c r="D13" s="7">
-        <v>137121</v>
+        <v>123225</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -1629,7 +1629,7 @@
         <v>134</v>
       </c>
       <c r="I13" s="7">
-        <v>108230</v>
+        <v>94803</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -1644,7 +1644,7 @@
         <v>264</v>
       </c>
       <c r="N13" s="7">
-        <v>245351</v>
+        <v>218028</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -1665,7 +1665,7 @@
         <v>94</v>
       </c>
       <c r="D14" s="7">
-        <v>93061</v>
+        <v>86748</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -1680,7 +1680,7 @@
         <v>142</v>
       </c>
       <c r="I14" s="7">
-        <v>107405</v>
+        <v>94013</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -1695,7 +1695,7 @@
         <v>236</v>
       </c>
       <c r="N14" s="7">
-        <v>200466</v>
+        <v>180761</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>104</v>
@@ -1716,7 +1716,7 @@
         <v>811</v>
       </c>
       <c r="D15" s="7">
-        <v>841659</v>
+        <v>808911</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1731,7 +1731,7 @@
         <v>1126</v>
       </c>
       <c r="I15" s="7">
-        <v>917874</v>
+        <v>939148</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1746,7 +1746,7 @@
         <v>1937</v>
       </c>
       <c r="N15" s="7">
-        <v>1759533</v>
+        <v>1748059</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1769,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>23148</v>
+        <v>21968</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>108</v>
@@ -1784,31 +1784,31 @@
         <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>24531</v>
+        <v>22719</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>47679</v>
+        <v>44687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,46 +1820,46 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>13309</v>
+        <v>12694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>25937</v>
+        <v>24950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
       </c>
       <c r="N17" s="7">
-        <v>39246</v>
+        <v>37644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,46 +1871,46 @@
         <v>101</v>
       </c>
       <c r="D18" s="7">
-        <v>102588</v>
+        <v>104384</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>166</v>
       </c>
       <c r="I18" s="7">
-        <v>112711</v>
+        <v>105824</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>267</v>
       </c>
       <c r="N18" s="7">
-        <v>215298</v>
+        <v>210209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,46 +1922,46 @@
         <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>36853</v>
+        <v>34928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
       </c>
       <c r="I19" s="7">
-        <v>34669</v>
+        <v>31011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
       </c>
       <c r="N19" s="7">
-        <v>71522</v>
+        <v>65939</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,25 +1973,25 @@
         <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>34400</v>
+        <v>32956</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
       </c>
       <c r="I20" s="7">
-        <v>40561</v>
+        <v>36979</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>146</v>
@@ -2003,7 +2003,7 @@
         <v>99</v>
       </c>
       <c r="N20" s="7">
-        <v>74962</v>
+        <v>69935</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>148</v>
@@ -2024,7 +2024,7 @@
         <v>208</v>
       </c>
       <c r="D21" s="7">
-        <v>210298</v>
+        <v>206930</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2039,7 +2039,7 @@
         <v>348</v>
       </c>
       <c r="I21" s="7">
-        <v>238409</v>
+        <v>221482</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2054,7 +2054,7 @@
         <v>556</v>
       </c>
       <c r="N21" s="7">
-        <v>448707</v>
+        <v>428413</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2077,7 +2077,7 @@
         <v>93</v>
       </c>
       <c r="D22" s="7">
-        <v>123938</v>
+        <v>128454</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>151</v>
@@ -2086,37 +2086,37 @@
         <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
       </c>
       <c r="I22" s="7">
-        <v>130827</v>
+        <v>121542</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
       </c>
       <c r="N22" s="7">
-        <v>254764</v>
+        <v>249995</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,46 +2128,46 @@
         <v>328</v>
       </c>
       <c r="D23" s="7">
-        <v>295499</v>
+        <v>283343</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>673</v>
       </c>
       <c r="I23" s="7">
-        <v>531128</v>
+        <v>592416</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>1001</v>
       </c>
       <c r="N23" s="7">
-        <v>826627</v>
+        <v>875759</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,46 +2179,46 @@
         <v>526</v>
       </c>
       <c r="D24" s="7">
-        <v>500455</v>
+        <v>488377</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>706</v>
       </c>
       <c r="I24" s="7">
-        <v>464945</v>
+        <v>430405</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1232</v>
       </c>
       <c r="N24" s="7">
-        <v>965400</v>
+        <v>918781</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,46 +2230,46 @@
         <v>201</v>
       </c>
       <c r="D25" s="7">
-        <v>204302</v>
+        <v>184430</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>263</v>
       </c>
       <c r="I25" s="7">
-        <v>198526</v>
+        <v>173576</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>464</v>
       </c>
       <c r="N25" s="7">
-        <v>402828</v>
+        <v>358005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,10 +2281,10 @@
         <v>186</v>
       </c>
       <c r="D26" s="7">
-        <v>166549</v>
+        <v>156181</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>186</v>
@@ -2296,7 +2296,7 @@
         <v>299</v>
       </c>
       <c r="I26" s="7">
-        <v>204991</v>
+        <v>182156</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>188</v>
@@ -2311,7 +2311,7 @@
         <v>485</v>
       </c>
       <c r="N26" s="7">
-        <v>371540</v>
+        <v>338337</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>191</v>
@@ -2332,7 +2332,7 @@
         <v>1334</v>
       </c>
       <c r="D27" s="7">
-        <v>1290744</v>
+        <v>1240784</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2347,7 +2347,7 @@
         <v>2127</v>
       </c>
       <c r="I27" s="7">
-        <v>1530416</v>
+        <v>1500094</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2362,7 +2362,7 @@
         <v>3461</v>
       </c>
       <c r="N27" s="7">
-        <v>2821159</v>
+        <v>2740878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
